--- a/Code/Results/Cases/Case_0_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_238/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02145098960058789</v>
+        <v>0.1455765158259812</v>
       </c>
       <c r="D2">
-        <v>2.240611955433508</v>
+        <v>1.002353019487146</v>
       </c>
       <c r="E2">
-        <v>0.147233540931051</v>
+        <v>0.0428164257569108</v>
       </c>
       <c r="F2">
-        <v>27.04743553289842</v>
+        <v>10.81725486413654</v>
       </c>
       <c r="G2">
-        <v>0.0004712327430575291</v>
+        <v>0.002760628370459343</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5248668272159165</v>
+        <v>0.09778339559919402</v>
       </c>
       <c r="M2">
-        <v>18.48540219293324</v>
+        <v>6.314083033152457</v>
       </c>
       <c r="N2">
-        <v>1.083135210169971</v>
+        <v>1.219881304098465</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02669153017571446</v>
+        <v>0.1479148473872858</v>
       </c>
       <c r="D3">
-        <v>1.513386522394143</v>
+        <v>0.9812135122777477</v>
       </c>
       <c r="E3">
-        <v>0.1108469027620949</v>
+        <v>0.03911771959971588</v>
       </c>
       <c r="F3">
-        <v>18.53214826241026</v>
+        <v>10.49191412954178</v>
       </c>
       <c r="G3">
-        <v>0.0005870697630258621</v>
+        <v>0.002783309043547615</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3802716532608343</v>
+        <v>0.08488838860094461</v>
       </c>
       <c r="M3">
-        <v>13.30274287977011</v>
+        <v>5.959948272760073</v>
       </c>
       <c r="N3">
-        <v>1.10939791553588</v>
+        <v>1.202088916787133</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02961648748475731</v>
+        <v>0.1494191025468314</v>
       </c>
       <c r="D4">
-        <v>1.273821387266253</v>
+        <v>0.9694237987550594</v>
       </c>
       <c r="E4">
-        <v>0.0968633907405696</v>
+        <v>0.03684309937466779</v>
       </c>
       <c r="F4">
-        <v>15.63591930010364</v>
+        <v>10.30487733395705</v>
       </c>
       <c r="G4">
-        <v>0.0006331671449378107</v>
+        <v>0.002797835355867306</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3257396612694237</v>
+        <v>0.07700459163382334</v>
       </c>
       <c r="M4">
-        <v>11.38863080162099</v>
+        <v>5.747805332552161</v>
       </c>
       <c r="N4">
-        <v>1.101861267333931</v>
+        <v>1.191859306147634</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03079949397262638</v>
+        <v>0.1500493478939937</v>
       </c>
       <c r="D5">
-        <v>1.192603996872606</v>
+        <v>0.9649087428074949</v>
       </c>
       <c r="E5">
-        <v>0.0918090435917378</v>
+        <v>0.03591493544533009</v>
       </c>
       <c r="F5">
-        <v>14.64209294945562</v>
+        <v>10.23174356371317</v>
       </c>
       <c r="G5">
-        <v>0.0006500861843520137</v>
+        <v>0.002803907556520806</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3061880042748868</v>
+        <v>0.07379893320721465</v>
       </c>
       <c r="M5">
-        <v>10.7095383596801</v>
+        <v>5.662631257258937</v>
       </c>
       <c r="N5">
-        <v>1.097298821508616</v>
+        <v>1.187866878109759</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03099591649678679</v>
+        <v>0.1501550420988984</v>
       </c>
       <c r="D6">
-        <v>1.179818236973006</v>
+        <v>0.9641762164972363</v>
       </c>
       <c r="E6">
-        <v>0.09099689768726904</v>
+        <v>0.03576073036601812</v>
       </c>
       <c r="F6">
-        <v>14.48504235770838</v>
+        <v>10.21978285748281</v>
       </c>
       <c r="G6">
-        <v>0.0006528191677673413</v>
+        <v>0.002804925105925762</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3030544424119626</v>
+        <v>0.07326702117502748</v>
       </c>
       <c r="M6">
-        <v>10.60108063450403</v>
+        <v>5.648563640180669</v>
       </c>
       <c r="N6">
-        <v>1.096485898317837</v>
+        <v>1.187214625912091</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02963245174155738</v>
+        <v>0.1494275323863796</v>
       </c>
       <c r="D7">
-        <v>1.272674215924098</v>
+        <v>0.9693617483108881</v>
       </c>
       <c r="E7">
-        <v>0.09679320968538363</v>
+        <v>0.03683058727074595</v>
       </c>
       <c r="F7">
-        <v>15.62192624689794</v>
+        <v>10.30387868143981</v>
       </c>
       <c r="G7">
-        <v>0.0006334010556099258</v>
+        <v>0.002797916627428839</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3254675934605586</v>
+        <v>0.07696133230412272</v>
       </c>
       <c r="M7">
-        <v>11.37915350534129</v>
+        <v>5.746651551268855</v>
       </c>
       <c r="N7">
-        <v>1.101804023125098</v>
+        <v>1.191804747365751</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02342419121754169</v>
+        <v>0.1463685666147878</v>
       </c>
       <c r="D8">
-        <v>1.888834231128442</v>
+        <v>0.9948110198198492</v>
       </c>
       <c r="E8">
-        <v>0.1305669945407786</v>
+        <v>0.04154165276245081</v>
       </c>
       <c r="F8">
-        <v>22.97713274144991</v>
+        <v>10.70236604628963</v>
       </c>
       <c r="G8">
-        <v>0.0005235691230291629</v>
+        <v>0.002768325096300397</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4582044602410207</v>
+        <v>0.09332928964779796</v>
       </c>
       <c r="M8">
-        <v>16.08106739017916</v>
+        <v>6.190843146477903</v>
       </c>
       <c r="N8">
-        <v>1.104479361889474</v>
+        <v>1.213603092400604</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02342419121754169</v>
+        <v>0.1409124632330574</v>
       </c>
       <c r="D9">
-        <v>1.888834231128442</v>
+        <v>1.054632452804242</v>
       </c>
       <c r="E9">
-        <v>0.1305669945407786</v>
+        <v>0.05076769928289693</v>
       </c>
       <c r="F9">
-        <v>22.97713274144991</v>
+        <v>11.59022447817887</v>
       </c>
       <c r="G9">
-        <v>0.0005235691230291629</v>
+        <v>0.002714980919344092</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4582044602410207</v>
+        <v>0.1257650460633357</v>
       </c>
       <c r="M9">
-        <v>16.08106739017916</v>
+        <v>7.106655263915229</v>
       </c>
       <c r="N9">
-        <v>1.104479361889474</v>
+        <v>1.261806608190341</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02342419121754169</v>
+        <v>0.1372329679869928</v>
       </c>
       <c r="D10">
-        <v>1.888834231128442</v>
+        <v>1.105327492473975</v>
       </c>
       <c r="E10">
-        <v>0.1305669945407786</v>
+        <v>0.05756298192295262</v>
       </c>
       <c r="F10">
-        <v>22.97713274144991</v>
+        <v>12.31550635248692</v>
       </c>
       <c r="G10">
-        <v>0.0005235691230291629</v>
+        <v>0.002678531200034097</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4582044602410207</v>
+        <v>0.1499070043788322</v>
       </c>
       <c r="M10">
-        <v>16.08106739017916</v>
+        <v>7.810863789355494</v>
       </c>
       <c r="N10">
-        <v>1.104479361889474</v>
+        <v>1.300481314193831</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02342419121754169</v>
+        <v>0.1356301797818098</v>
       </c>
       <c r="D11">
-        <v>1.888834231128442</v>
+        <v>1.130020103315076</v>
       </c>
       <c r="E11">
-        <v>0.1305669945407786</v>
+        <v>0.06066381906182272</v>
       </c>
       <c r="F11">
-        <v>22.97713274144991</v>
+        <v>12.66321683740307</v>
       </c>
       <c r="G11">
-        <v>0.0005235691230291629</v>
+        <v>0.002662518599723097</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4582044602410207</v>
+        <v>0.1609824567291582</v>
       </c>
       <c r="M11">
-        <v>16.08106739017916</v>
+        <v>8.139008203685364</v>
       </c>
       <c r="N11">
-        <v>1.104479361889474</v>
+        <v>1.318770638255842</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02342419121754169</v>
+        <v>0.1350334366791124</v>
       </c>
       <c r="D12">
-        <v>1.888834231128442</v>
+        <v>1.139619806331098</v>
       </c>
       <c r="E12">
-        <v>0.1305669945407786</v>
+        <v>0.06183991660529387</v>
       </c>
       <c r="F12">
-        <v>22.97713274144991</v>
+        <v>12.79761141231404</v>
       </c>
       <c r="G12">
-        <v>0.0005235691230291629</v>
+        <v>0.002656534570359248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4582044602410207</v>
+        <v>0.165192027913605</v>
       </c>
       <c r="M12">
-        <v>16.08106739017916</v>
+        <v>8.264474609504987</v>
       </c>
       <c r="N12">
-        <v>1.104479361889474</v>
+        <v>1.32579534150986</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02342419121754169</v>
+        <v>0.135161502683065</v>
       </c>
       <c r="D13">
-        <v>1.888834231128442</v>
+        <v>1.13754101480589</v>
       </c>
       <c r="E13">
-        <v>0.1305669945407786</v>
+        <v>0.06158653121082125</v>
       </c>
       <c r="F13">
-        <v>22.97713274144991</v>
+        <v>12.76854318221928</v>
       </c>
       <c r="G13">
-        <v>0.0005235691230291629</v>
+        <v>0.002657819833809846</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4582044602410207</v>
+        <v>0.1642846946632659</v>
       </c>
       <c r="M13">
-        <v>16.08106739017916</v>
+        <v>8.237398167339279</v>
       </c>
       <c r="N13">
-        <v>1.104479361889474</v>
+        <v>1.324278063563838</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02342419121754169</v>
+        <v>0.1355808810774235</v>
       </c>
       <c r="D14">
-        <v>1.888834231128442</v>
+        <v>1.130804796314919</v>
       </c>
       <c r="E14">
-        <v>0.1305669945407786</v>
+        <v>0.06076053673065474</v>
       </c>
       <c r="F14">
-        <v>22.97713274144991</v>
+        <v>12.67421796125558</v>
       </c>
       <c r="G14">
-        <v>0.0005235691230291629</v>
+        <v>0.002662024707772348</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4582044602410207</v>
+        <v>0.1613284564756299</v>
       </c>
       <c r="M14">
-        <v>16.08106739017916</v>
+        <v>8.149305742514741</v>
       </c>
       <c r="N14">
-        <v>1.104479361889474</v>
+        <v>1.319346588423798</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02342419121754169</v>
+        <v>0.1358390900529614</v>
       </c>
       <c r="D15">
-        <v>1.888834231128442</v>
+        <v>1.126711563980052</v>
       </c>
       <c r="E15">
-        <v>0.1305669945407786</v>
+        <v>0.06025485104134276</v>
       </c>
       <c r="F15">
-        <v>22.97713274144991</v>
+        <v>12.61680098388695</v>
       </c>
       <c r="G15">
-        <v>0.0005235691230291629</v>
+        <v>0.002664610613896634</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4582044602410207</v>
+        <v>0.1595197648467632</v>
       </c>
       <c r="M15">
-        <v>16.08106739017916</v>
+        <v>8.095506144530475</v>
       </c>
       <c r="N15">
-        <v>1.104479361889474</v>
+        <v>1.316338768431905</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02342419121754169</v>
+        <v>0.1373391419164989</v>
       </c>
       <c r="D16">
-        <v>1.888834231128442</v>
+        <v>1.103747820480635</v>
       </c>
       <c r="E16">
-        <v>0.1305669945407786</v>
+        <v>0.05736057005549355</v>
       </c>
       <c r="F16">
-        <v>22.97713274144991</v>
+        <v>12.29315446097138</v>
       </c>
       <c r="G16">
-        <v>0.0005235691230291629</v>
+        <v>0.002679588919178669</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4582044602410207</v>
+        <v>0.1491852517659851</v>
       </c>
       <c r="M16">
-        <v>16.08106739017916</v>
+        <v>7.789582721134593</v>
       </c>
       <c r="N16">
-        <v>1.104479361889474</v>
+        <v>1.299299969380968</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02342419121754169</v>
+        <v>0.1382775565674841</v>
       </c>
       <c r="D17">
-        <v>1.888834231128442</v>
+        <v>1.090088166343037</v>
       </c>
       <c r="E17">
-        <v>0.1305669945407786</v>
+        <v>0.05558782875113266</v>
       </c>
       <c r="F17">
-        <v>22.97713274144991</v>
+        <v>12.09927673025652</v>
       </c>
       <c r="G17">
-        <v>0.0005235691230291629</v>
+        <v>0.002688921741637373</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4582044602410207</v>
+        <v>0.1428706995953348</v>
       </c>
       <c r="M17">
-        <v>16.08106739017916</v>
+        <v>7.603963476625495</v>
       </c>
       <c r="N17">
-        <v>1.104479361889474</v>
+        <v>1.28902464234065</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02342419121754169</v>
+        <v>0.1388239947531815</v>
       </c>
       <c r="D18">
-        <v>1.888834231128442</v>
+        <v>1.082384099960564</v>
       </c>
       <c r="E18">
-        <v>0.1305669945407786</v>
+        <v>0.05456906964585784</v>
       </c>
       <c r="F18">
-        <v>22.97713274144991</v>
+        <v>11.9894258611987</v>
       </c>
       <c r="G18">
-        <v>0.0005235691230291629</v>
+        <v>0.002694343385663847</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4582044602410207</v>
+        <v>0.1392473674944199</v>
       </c>
       <c r="M18">
-        <v>16.08106739017916</v>
+        <v>7.49792865678728</v>
       </c>
       <c r="N18">
-        <v>1.104479361889474</v>
+        <v>1.283180122216578</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02342419121754169</v>
+        <v>0.1390101583168004</v>
       </c>
       <c r="D19">
-        <v>1.888834231128442</v>
+        <v>1.07980141692309</v>
       </c>
       <c r="E19">
-        <v>0.1305669945407786</v>
+        <v>0.05422427109834871</v>
       </c>
       <c r="F19">
-        <v>22.97713274144991</v>
+        <v>11.95251283809199</v>
       </c>
       <c r="G19">
-        <v>0.0005235691230291629</v>
+        <v>0.002696188339572838</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4582044602410207</v>
+        <v>0.1380219890687044</v>
       </c>
       <c r="M19">
-        <v>16.08106739017916</v>
+        <v>7.462149734550763</v>
       </c>
       <c r="N19">
-        <v>1.104479361889474</v>
+        <v>1.281212567034288</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02342419121754169</v>
+        <v>0.1381769687788719</v>
       </c>
       <c r="D20">
-        <v>1.888834231128442</v>
+        <v>1.091526363214655</v>
       </c>
       <c r="E20">
-        <v>0.1305669945407786</v>
+        <v>0.05577644608759869</v>
       </c>
       <c r="F20">
-        <v>22.97713274144991</v>
+        <v>12.11974210465871</v>
       </c>
       <c r="G20">
-        <v>0.0005235691230291629</v>
+        <v>0.002687922709212171</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4582044602410207</v>
+        <v>0.1435419861035854</v>
       </c>
       <c r="M20">
-        <v>16.08106739017916</v>
+        <v>7.62364697859806</v>
       </c>
       <c r="N20">
-        <v>1.104479361889474</v>
+        <v>1.290111690101099</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02342419121754169</v>
+        <v>0.1354574228358771</v>
       </c>
       <c r="D21">
-        <v>1.888834231128442</v>
+        <v>1.132776504045978</v>
       </c>
       <c r="E21">
-        <v>0.1305669945407786</v>
+        <v>0.06100309626375378</v>
       </c>
       <c r="F21">
-        <v>22.97713274144991</v>
+        <v>12.70184823727936</v>
       </c>
       <c r="G21">
-        <v>0.0005235691230291629</v>
+        <v>0.002660787492133834</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4582044602410207</v>
+        <v>0.162196335778134</v>
       </c>
       <c r="M21">
-        <v>16.08106739017916</v>
+        <v>8.17514721317599</v>
       </c>
       <c r="N21">
-        <v>1.104479361889474</v>
+        <v>1.320792406060121</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02342419121754169</v>
+        <v>0.1337394766834024</v>
       </c>
       <c r="D22">
-        <v>1.888834231128442</v>
+        <v>1.161195568926018</v>
       </c>
       <c r="E22">
-        <v>0.1305669945407786</v>
+        <v>0.06443021421868167</v>
       </c>
       <c r="F22">
-        <v>22.97713274144991</v>
+        <v>13.09825298324665</v>
       </c>
       <c r="G22">
-        <v>0.0005235691230291629</v>
+        <v>0.002643515913808909</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4582044602410207</v>
+        <v>0.1744797024159084</v>
       </c>
       <c r="M22">
-        <v>16.08106739017916</v>
+        <v>8.542652961169097</v>
       </c>
       <c r="N22">
-        <v>1.104479361889474</v>
+        <v>1.341420195877191</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02342419121754169</v>
+        <v>0.1346509439896479</v>
       </c>
       <c r="D23">
-        <v>1.888834231128442</v>
+        <v>1.145889134681454</v>
       </c>
       <c r="E23">
-        <v>0.1305669945407786</v>
+        <v>0.06259989984051373</v>
       </c>
       <c r="F23">
-        <v>22.97713274144991</v>
+        <v>12.88516503952883</v>
       </c>
       <c r="G23">
-        <v>0.0005235691230291629</v>
+        <v>0.002652692472879281</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4582044602410207</v>
+        <v>0.1679147027848842</v>
       </c>
       <c r="M23">
-        <v>16.08106739017916</v>
+        <v>8.345832086570624</v>
       </c>
       <c r="N23">
-        <v>1.104479361889474</v>
+        <v>1.33035840096727</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02342419121754169</v>
+        <v>0.1382224229282478</v>
       </c>
       <c r="D24">
-        <v>1.888834231128442</v>
+        <v>1.090875691240058</v>
       </c>
       <c r="E24">
-        <v>0.1305669945407786</v>
+        <v>0.05569117093883236</v>
       </c>
       <c r="F24">
-        <v>22.97713274144991</v>
+        <v>12.11048470037446</v>
       </c>
       <c r="G24">
-        <v>0.0005235691230291629</v>
+        <v>0.002688374197113799</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4582044602410207</v>
+        <v>0.143238475867193</v>
       </c>
       <c r="M24">
-        <v>16.08106739017916</v>
+        <v>7.614745955110095</v>
       </c>
       <c r="N24">
-        <v>1.104479361889474</v>
+        <v>1.289620039793846</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02342419121754169</v>
+        <v>0.1423305725668129</v>
       </c>
       <c r="D25">
-        <v>1.888834231128442</v>
+        <v>1.037317989510655</v>
       </c>
       <c r="E25">
-        <v>0.1305669945407786</v>
+        <v>0.04827069889948277</v>
       </c>
       <c r="F25">
-        <v>22.97713274144991</v>
+        <v>11.33783549413488</v>
       </c>
       <c r="G25">
-        <v>0.0005235691230291629</v>
+        <v>0.002728921857450903</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4582044602410207</v>
+        <v>0.1169436332201172</v>
       </c>
       <c r="M25">
-        <v>16.08106739017916</v>
+        <v>6.853707131197382</v>
       </c>
       <c r="N25">
-        <v>1.104479361889474</v>
+        <v>1.24818925823314</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_238/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_238/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1455765158259812</v>
+        <v>0.0214509896006021</v>
       </c>
       <c r="D2">
-        <v>1.002353019487146</v>
+        <v>2.240611955433849</v>
       </c>
       <c r="E2">
-        <v>0.0428164257569108</v>
+        <v>0.1472335409310084</v>
       </c>
       <c r="F2">
-        <v>10.81725486413654</v>
+        <v>27.04743553289825</v>
       </c>
       <c r="G2">
-        <v>0.002760628370459343</v>
+        <v>0.0004712327432158716</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09778339559919402</v>
+        <v>0.5248668272160586</v>
       </c>
       <c r="M2">
-        <v>6.314083033152457</v>
+        <v>18.48540219293315</v>
       </c>
       <c r="N2">
-        <v>1.219881304098465</v>
+        <v>1.083135210169985</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1479148473872858</v>
+        <v>0.02669153017629</v>
       </c>
       <c r="D3">
-        <v>0.9812135122777477</v>
+        <v>1.51338652239437</v>
       </c>
       <c r="E3">
-        <v>0.03911771959971588</v>
+        <v>0.1108469027621268</v>
       </c>
       <c r="F3">
-        <v>10.49191412954178</v>
+        <v>18.53214826241043</v>
       </c>
       <c r="G3">
-        <v>0.002783309043547615</v>
+        <v>0.0005870697630191427</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08488838860094461</v>
+        <v>0.3802716532605928</v>
       </c>
       <c r="M3">
-        <v>5.959948272760073</v>
+        <v>13.30274287977016</v>
       </c>
       <c r="N3">
-        <v>1.202088916787133</v>
+        <v>1.109397915535823</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1494191025468314</v>
+        <v>0.02961648748436119</v>
       </c>
       <c r="D4">
-        <v>0.9694237987550594</v>
+        <v>1.273821387266963</v>
       </c>
       <c r="E4">
-        <v>0.03684309937466779</v>
+        <v>0.09686339074054118</v>
       </c>
       <c r="F4">
-        <v>10.30487733395705</v>
+        <v>15.63591930010352</v>
       </c>
       <c r="G4">
-        <v>0.002797835355867306</v>
+        <v>0.0006331671450809329</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07700459163382334</v>
+        <v>0.3257396612694521</v>
       </c>
       <c r="M4">
-        <v>5.747805332552161</v>
+        <v>11.38863080162096</v>
       </c>
       <c r="N4">
-        <v>1.191859306147634</v>
+        <v>1.101861267333987</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1500493478939937</v>
+        <v>0.03079949397358561</v>
       </c>
       <c r="D5">
-        <v>0.9649087428074949</v>
+        <v>1.192603996872094</v>
       </c>
       <c r="E5">
-        <v>0.03591493544533009</v>
+        <v>0.09180904359170938</v>
       </c>
       <c r="F5">
-        <v>10.23174356371317</v>
+        <v>14.64209294945562</v>
       </c>
       <c r="G5">
-        <v>0.002803907556520806</v>
+        <v>0.000650086184413617</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07379893320721465</v>
+        <v>0.3061880042749152</v>
       </c>
       <c r="M5">
-        <v>5.662631257258937</v>
+        <v>10.70953835968004</v>
       </c>
       <c r="N5">
-        <v>1.187866878109759</v>
+        <v>1.097298821508602</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1501550420988984</v>
+        <v>0.03099591649638</v>
       </c>
       <c r="D6">
-        <v>0.9641762164972363</v>
+        <v>1.179818236973432</v>
       </c>
       <c r="E6">
-        <v>0.03576073036601812</v>
+        <v>0.09099689768726194</v>
       </c>
       <c r="F6">
-        <v>10.21978285748281</v>
+        <v>14.48504235770832</v>
       </c>
       <c r="G6">
-        <v>0.002804925105925762</v>
+        <v>0.0006528191677661018</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07326702117502748</v>
+        <v>0.3030544424119483</v>
       </c>
       <c r="M6">
-        <v>5.648563640180669</v>
+        <v>10.60108063450406</v>
       </c>
       <c r="N6">
-        <v>1.187214625912091</v>
+        <v>1.096485898317781</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1494275323863796</v>
+        <v>0.02963245174129092</v>
       </c>
       <c r="D7">
-        <v>0.9693617483108881</v>
+        <v>1.272674215924354</v>
       </c>
       <c r="E7">
-        <v>0.03683058727074595</v>
+        <v>0.0967932096854156</v>
       </c>
       <c r="F7">
-        <v>10.30387868143981</v>
+        <v>15.62192624689732</v>
       </c>
       <c r="G7">
-        <v>0.002797916627428839</v>
+        <v>0.0006334010554997851</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07696133230412272</v>
+        <v>0.3254675934604023</v>
       </c>
       <c r="M7">
-        <v>5.746651551268855</v>
+        <v>11.37915350534095</v>
       </c>
       <c r="N7">
-        <v>1.191804747365751</v>
+        <v>1.101804023125084</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1463685666147878</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D8">
-        <v>0.9948110198198492</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E8">
-        <v>0.04154165276245081</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F8">
-        <v>10.70236604628963</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G8">
-        <v>0.002768325096300397</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09332928964779796</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M8">
-        <v>6.190843146477903</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N8">
-        <v>1.213603092400604</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1409124632330574</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D9">
-        <v>1.054632452804242</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E9">
-        <v>0.05076769928289693</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F9">
-        <v>11.59022447817887</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G9">
-        <v>0.002714980919344092</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1257650460633357</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M9">
-        <v>7.106655263915229</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N9">
-        <v>1.261806608190341</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1372329679869928</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D10">
-        <v>1.105327492473975</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E10">
-        <v>0.05756298192295262</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F10">
-        <v>12.31550635248692</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G10">
-        <v>0.002678531200034097</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1499070043788322</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M10">
-        <v>7.810863789355494</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N10">
-        <v>1.300481314193831</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1356301797818098</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D11">
-        <v>1.130020103315076</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E11">
-        <v>0.06066381906182272</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F11">
-        <v>12.66321683740307</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G11">
-        <v>0.002662518599723097</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1609824567291582</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M11">
-        <v>8.139008203685364</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N11">
-        <v>1.318770638255842</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1350334366791124</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D12">
-        <v>1.139619806331098</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E12">
-        <v>0.06183991660529387</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F12">
-        <v>12.79761141231404</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G12">
-        <v>0.002656534570359248</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.165192027913605</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M12">
-        <v>8.264474609504987</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N12">
-        <v>1.32579534150986</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.135161502683065</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D13">
-        <v>1.13754101480589</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E13">
-        <v>0.06158653121082125</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F13">
-        <v>12.76854318221928</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G13">
-        <v>0.002657819833809846</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1642846946632659</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M13">
-        <v>8.237398167339279</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N13">
-        <v>1.324278063563838</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1355808810774235</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D14">
-        <v>1.130804796314919</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E14">
-        <v>0.06076053673065474</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F14">
-        <v>12.67421796125558</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G14">
-        <v>0.002662024707772348</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1613284564756299</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M14">
-        <v>8.149305742514741</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N14">
-        <v>1.319346588423798</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1358390900529614</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D15">
-        <v>1.126711563980052</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E15">
-        <v>0.06025485104134276</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F15">
-        <v>12.61680098388695</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G15">
-        <v>0.002664610613896634</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1595197648467632</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M15">
-        <v>8.095506144530475</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N15">
-        <v>1.316338768431905</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1373391419164989</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D16">
-        <v>1.103747820480635</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E16">
-        <v>0.05736057005549355</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F16">
-        <v>12.29315446097138</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G16">
-        <v>0.002679588919178669</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1491852517659851</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M16">
-        <v>7.789582721134593</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N16">
-        <v>1.299299969380968</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1382775565674841</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D17">
-        <v>1.090088166343037</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E17">
-        <v>0.05558782875113266</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F17">
-        <v>12.09927673025652</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G17">
-        <v>0.002688921741637373</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1428706995953348</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M17">
-        <v>7.603963476625495</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N17">
-        <v>1.28902464234065</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1388239947531815</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D18">
-        <v>1.082384099960564</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E18">
-        <v>0.05456906964585784</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F18">
-        <v>11.9894258611987</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G18">
-        <v>0.002694343385663847</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1392473674944199</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M18">
-        <v>7.49792865678728</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N18">
-        <v>1.283180122216578</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1390101583168004</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D19">
-        <v>1.07980141692309</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E19">
-        <v>0.05422427109834871</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F19">
-        <v>11.95251283809199</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G19">
-        <v>0.002696188339572838</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1380219890687044</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M19">
-        <v>7.462149734550763</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N19">
-        <v>1.281212567034288</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1381769687788719</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D20">
-        <v>1.091526363214655</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E20">
-        <v>0.05577644608759869</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F20">
-        <v>12.11974210465871</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G20">
-        <v>0.002687922709212171</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1435419861035854</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M20">
-        <v>7.62364697859806</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N20">
-        <v>1.290111690101099</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1354574228358771</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D21">
-        <v>1.132776504045978</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E21">
-        <v>0.06100309626375378</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F21">
-        <v>12.70184823727936</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G21">
-        <v>0.002660787492133834</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.162196335778134</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M21">
-        <v>8.17514721317599</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N21">
-        <v>1.320792406060121</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1337394766834024</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D22">
-        <v>1.161195568926018</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E22">
-        <v>0.06443021421868167</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F22">
-        <v>13.09825298324665</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G22">
-        <v>0.002643515913808909</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1744797024159084</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M22">
-        <v>8.542652961169097</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N22">
-        <v>1.341420195877191</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1346509439896479</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D23">
-        <v>1.145889134681454</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E23">
-        <v>0.06259989984051373</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F23">
-        <v>12.88516503952883</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G23">
-        <v>0.002652692472879281</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1679147027848842</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M23">
-        <v>8.345832086570624</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N23">
-        <v>1.33035840096727</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1382224229282478</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D24">
-        <v>1.090875691240058</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E24">
-        <v>0.05569117093883236</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F24">
-        <v>12.11048470037446</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G24">
-        <v>0.002688374197113799</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.143238475867193</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M24">
-        <v>7.614745955110095</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N24">
-        <v>1.289620039793846</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1423305725668129</v>
+        <v>0.02342419121736583</v>
       </c>
       <c r="D25">
-        <v>1.037317989510655</v>
+        <v>1.888834231128385</v>
       </c>
       <c r="E25">
-        <v>0.04827069889948277</v>
+        <v>0.1305669945407182</v>
       </c>
       <c r="F25">
-        <v>11.33783549413488</v>
+        <v>22.97713274145053</v>
       </c>
       <c r="G25">
-        <v>0.002728921857450903</v>
+        <v>0.0005235691229197474</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1169436332201172</v>
+        <v>0.4582044602407649</v>
       </c>
       <c r="M25">
-        <v>6.853707131197382</v>
+        <v>16.08106739017941</v>
       </c>
       <c r="N25">
-        <v>1.24818925823314</v>
+        <v>1.104479361889432</v>
       </c>
       <c r="O25">
         <v>0</v>
